--- a/model_exports/labels/2.0_False_False_0_2.xlsx
+++ b/model_exports/labels/2.0_False_False_0_2.xlsx
@@ -453,14 +453,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -479,20 +479,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,33 +531,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,33 +609,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,33 +648,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,33 +700,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,46 +739,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,24 +791,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,46 +856,46 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,24 +934,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,111 +960,111 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,24 +1168,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,46 +1194,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,33 +1350,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,76 +1389,76 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,24 +1532,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,20 +1610,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1662,33 +1662,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,20 +1727,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,20 +1779,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,46 +1857,46 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,33 +1987,33 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,20 +2026,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,24 +2078,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,37 +2156,37 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,24 +2195,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2221,33 +2221,33 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,33 +2260,33 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2312,24 +2312,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,33 +2351,33 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,50 +2390,50 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,37 +2455,37 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2494,37 +2494,37 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2533,37 +2533,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2572,20 +2572,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,33 +2598,33 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,20 +2689,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,76 +2728,76 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,20 +2806,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,24 +2832,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,50 +2871,50 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2962,59 +2962,59 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,46 +3040,46 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,24 +3092,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,37 +3157,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3196,59 +3196,59 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,24 +3261,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,50 +3313,50 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,33 +3378,33 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,20 +3469,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,37 +3495,37 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,33 +3560,33 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,11 +3612,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,20 +3729,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,24 +3768,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,59 +3794,59 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,24 +3859,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3911,33 +3911,33 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,33 +3963,33 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,24 +4002,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,37 +4054,37 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4093,24 +4093,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,46 +4158,46 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,24 +4210,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,37 +4275,37 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,37 +4314,37 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,33 +4405,33 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,37 +4509,37 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -4548,20 +4548,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,46 +4639,46 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,37 +4704,37 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4743,59 +4743,59 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4834,20 +4834,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,50 +4886,50 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,115 +4951,115 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,33 +5094,33 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,50 +5146,50 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,24 +5237,24 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,20 +5263,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,33 +5341,33 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,11 +5380,11 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,37 +5432,37 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,20 +5484,20 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,20 +5536,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,20 +5562,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,59 +5588,59 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,20 +5666,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,46 +5692,46 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,11 +5744,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,33 +5809,33 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5874,33 +5874,33 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,37 +5913,37 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,11 +5965,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5978,24 +5978,24 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,37 +6017,37 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -6056,154 +6056,154 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -6225,46 +6225,46 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,20 +6277,20 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,63 +6303,63 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -6368,33 +6368,33 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,20 +6420,20 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,24 +6472,24 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,24 +6498,24 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,37 +6537,37 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,20 +6576,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,24 +6667,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,72 +6693,72 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,20 +6771,20 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,20 +6810,20 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,11 +6862,11 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -6875,24 +6875,24 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,11 +6927,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -6940,24 +6940,24 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,24 +6979,24 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,46 +7044,46 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,11 +7096,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,11 +7148,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,85 +7174,85 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,20 +7265,20 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,50 +7382,50 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
         <v>1</v>
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,50 +7460,50 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,46 +7551,46 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,24 +7603,24 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -7629,11 +7629,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,37 +7655,37 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,11 +7694,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,11 +7707,11 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -7720,50 +7720,50 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
         <v>1</v>
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,37 +7785,37 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,20 +7824,20 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,33 +7850,33 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,37 +7889,37 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,20 +8019,20 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,20 +8045,20 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,11 +8084,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
         <v>0</v>
@@ -8097,37 +8097,37 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>0</v>
@@ -8149,20 +8149,20 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,33 +8175,33 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,98 +8214,98 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,11 +8318,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,46 +8331,46 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,63 +8409,63 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,33 +8487,33 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,20 +8526,20 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,20 +8565,20 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,20 +8591,20 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -8630,33 +8630,33 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,20 +8838,20 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,24 +8877,24 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B650" t="n">
         <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>0</v>
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,11 +8994,11 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,14 +9007,14 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,24 +9072,24 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,24 +9098,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>0</v>
@@ -9124,46 +9124,46 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B671" t="n">
         <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,59 +9215,59 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B676" t="n">
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,37 +9280,37 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,24 +9423,24 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B692" t="n">
         <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,33 +9462,33 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B696" t="n">
         <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,24 +9618,24 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B712" t="n">
         <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,20 +9813,20 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,24 +9852,24 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,11 +9904,11 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C729" t="n">
         <v>1</v>
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,11 +9943,11 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-928096679089209344</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C732" t="n">
         <v>1</v>
